--- a/prisma/res/recommendations.xlsx
+++ b/prisma/res/recommendations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\77775\IdeaProjects\healthme\prisma\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2407FF47-61DB-4A3C-8871-6DAF968D88FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E40B1BB-A3B3-4BF8-AD8E-FB44E703C5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
